--- a/stats/analysis/bowling_trophies.xlsx
+++ b/stats/analysis/bowling_trophies.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\plough\stats\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE948F14-0A96-4EFE-B458-6AF4BC01FA08}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040BD49C-64FB-4156-9A6A-7F7C4390445C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19305" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bowling - 2018" sheetId="4" r:id="rId1"/>
-    <sheet name="Bowling - 2017" sheetId="6" r:id="rId2"/>
-    <sheet name="Bowling - 2016" sheetId="8" r:id="rId3"/>
+    <sheet name="Summary" sheetId="11" r:id="rId1"/>
+    <sheet name="Bowling - 2018" sheetId="4" r:id="rId2"/>
+    <sheet name="Bowling - 2017" sheetId="6" r:id="rId3"/>
+    <sheet name="Bowling - 2016" sheetId="8" r:id="rId4"/>
+    <sheet name="Bowling - 2015" sheetId="9" r:id="rId5"/>
+    <sheet name="Bowling - 2014" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Bowling - 2016'!$A$2:$K$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Bowling - 2017'!$A$2:$K$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bowling - 2018'!$A$2:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Bowling - 2014'!$A$2:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Bowling - 2015'!$A$2:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Bowling - 2016'!$A$2:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Bowling - 2017'!$A$2:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Bowling - 2018'!$A$2:$K$41</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,15 +38,12 @@
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="192">
   <si>
     <t>Runs</t>
   </si>
@@ -57,9 +60,6 @@
     <t>Player</t>
   </si>
   <si>
-    <t>Games</t>
-  </si>
-  <si>
     <t>Avg</t>
   </si>
   <si>
@@ -340,15 +340,308 @@
   </si>
   <si>
     <t>Ed Woolcock</t>
+  </si>
+  <si>
+    <t>Julian Bell</t>
+  </si>
+  <si>
+    <t>Raife Bidder</t>
+  </si>
+  <si>
+    <t>Harry Madley</t>
+  </si>
+  <si>
+    <t>James Murphy</t>
+  </si>
+  <si>
+    <t>Harry Parnell</t>
+  </si>
+  <si>
+    <t>Matt Ridgway</t>
+  </si>
+  <si>
+    <t>Max Whiting</t>
+  </si>
+  <si>
+    <t>Mat</t>
+  </si>
+  <si>
+    <t>M Ashton</t>
+  </si>
+  <si>
+    <t>A Barraclough</t>
+  </si>
+  <si>
+    <t>R Barraclough</t>
+  </si>
+  <si>
+    <t>A Barrass</t>
+  </si>
+  <si>
+    <t>E Beasley</t>
+  </si>
+  <si>
+    <t>J Bell</t>
+  </si>
+  <si>
+    <t>A Boyd</t>
+  </si>
+  <si>
+    <t>D Brennan</t>
+  </si>
+  <si>
+    <t>S Britto</t>
+  </si>
+  <si>
+    <t>R Buckley</t>
+  </si>
+  <si>
+    <t>A Burriel</t>
+  </si>
+  <si>
+    <t>R Byrne</t>
+  </si>
+  <si>
+    <t>M Callanan</t>
+  </si>
+  <si>
+    <t>C Carline</t>
+  </si>
+  <si>
+    <t>C Carson</t>
+  </si>
+  <si>
+    <t>S Carson</t>
+  </si>
+  <si>
+    <t>K Chau</t>
+  </si>
+  <si>
+    <t>D Conway</t>
+  </si>
+  <si>
+    <t>R Cox</t>
+  </si>
+  <si>
+    <t>H Davies</t>
+  </si>
+  <si>
+    <t>J Davies</t>
+  </si>
+  <si>
+    <t>H Dowell</t>
+  </si>
+  <si>
+    <t>N Dowell</t>
+  </si>
+  <si>
+    <t>P Gledhill</t>
+  </si>
+  <si>
+    <t>B Glover</t>
+  </si>
+  <si>
+    <t>L Gray</t>
+  </si>
+  <si>
+    <t>J Green</t>
+  </si>
+  <si>
+    <t>S Hamer</t>
+  </si>
+  <si>
+    <t>J Harris</t>
+  </si>
+  <si>
+    <t>C Hey</t>
+  </si>
+  <si>
+    <t>S Hoskin</t>
+  </si>
+  <si>
+    <t>P Hynes</t>
+  </si>
+  <si>
+    <t>J Jackson</t>
+  </si>
+  <si>
+    <t>L Jackson</t>
+  </si>
+  <si>
+    <t>T James</t>
+  </si>
+  <si>
+    <t>A Jones</t>
+  </si>
+  <si>
+    <t>B Jones</t>
+  </si>
+  <si>
+    <t>R Keogh</t>
+  </si>
+  <si>
+    <t>N Khan</t>
+  </si>
+  <si>
+    <t>D Kingston</t>
+  </si>
+  <si>
+    <t>A Kumar</t>
+  </si>
+  <si>
+    <t>C Lilfort</t>
+  </si>
+  <si>
+    <t>T Lockhart</t>
+  </si>
+  <si>
+    <t>T Lonnen</t>
+  </si>
+  <si>
+    <t>C Maclaren</t>
+  </si>
+  <si>
+    <t>H Madley</t>
+  </si>
+  <si>
+    <t>M Magill</t>
+  </si>
+  <si>
+    <t>B McGhee</t>
+  </si>
+  <si>
+    <t>F Mills</t>
+  </si>
+  <si>
+    <t>A Morgan</t>
+  </si>
+  <si>
+    <t>? Murphy</t>
+  </si>
+  <si>
+    <t>R Nair</t>
+  </si>
+  <si>
+    <t>A Nicholls</t>
+  </si>
+  <si>
+    <t>Z O'Sullivan</t>
+  </si>
+  <si>
+    <t>C Ovens</t>
+  </si>
+  <si>
+    <t>T Oxenham</t>
+  </si>
+  <si>
+    <t>L Parks</t>
+  </si>
+  <si>
+    <t>H Parnell</t>
+  </si>
+  <si>
+    <t>A Paul</t>
+  </si>
+  <si>
+    <t>A Pizii</t>
+  </si>
+  <si>
+    <t>D Pretorius</t>
+  </si>
+  <si>
+    <t>M Rees</t>
+  </si>
+  <si>
+    <t>I Reham</t>
+  </si>
+  <si>
+    <t>R Richardson</t>
+  </si>
+  <si>
+    <t>M Ridgway</t>
+  </si>
+  <si>
+    <t>N Ridgway</t>
+  </si>
+  <si>
+    <t>H Rose</t>
+  </si>
+  <si>
+    <t>R Srivastava</t>
+  </si>
+  <si>
+    <t>N Stephenson</t>
+  </si>
+  <si>
+    <t>A Stewart</t>
+  </si>
+  <si>
+    <t>B Stinson</t>
+  </si>
+  <si>
+    <t>? Sullivan</t>
+  </si>
+  <si>
+    <t>S Swaminathan</t>
+  </si>
+  <si>
+    <t>A Titley</t>
+  </si>
+  <si>
+    <t>R Turner</t>
+  </si>
+  <si>
+    <t>H Webster</t>
+  </si>
+  <si>
+    <t>M Whiting</t>
+  </si>
+  <si>
+    <t>G Wolledge</t>
+  </si>
+  <si>
+    <t>V Yadab</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Qualifiers per year based on min matches / min wickets</t>
+  </si>
+  <si>
+    <t>10m, 15w</t>
+  </si>
+  <si>
+    <t>10m, 12w</t>
+  </si>
+  <si>
+    <t>10m, 10w</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -374,6 +667,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -392,38 +707,103 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D1143675-20B7-4C2E-853B-83487A0250C5}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{32968B60-D95C-4B02-BD7F-74A43AC6A1B3}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -759,11 +1139,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8331D55C-66D0-4C22-8B9D-DB02ADD36EF9}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="11.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="14">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="14">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14">
+        <v>7</v>
+      </c>
+      <c r="D5" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="14">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14">
+        <v>9</v>
+      </c>
+      <c r="D7" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>2014</v>
+      </c>
+      <c r="B8" s="14">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14">
+        <v>8</v>
+      </c>
+      <c r="D8" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="17">
+        <f>AVERAGE(B4:B8)</f>
+        <v>5.8</v>
+      </c>
+      <c r="C9" s="17">
+        <f t="shared" ref="C9:D9" si="0">AVERAGE(C4:C8)</f>
+        <v>7.4</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K1" s="3"/>
     </row>
@@ -798,43 +1304,43 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N2" s="7">
         <f>COUNTIF(K:K,TRUE)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5">
         <v>24</v>
@@ -869,7 +1375,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5">
         <v>14</v>
@@ -904,7 +1410,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -939,7 +1445,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5">
         <v>14</v>
@@ -974,7 +1480,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5">
         <v>16</v>
@@ -1009,7 +1515,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5">
         <v>13</v>
@@ -1044,7 +1550,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5">
         <v>20</v>
@@ -1079,7 +1585,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
@@ -1105,7 +1611,7 @@
       </c>
       <c r="J10" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="b">
         <f t="shared" si="2"/>
@@ -1114,7 +1620,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5">
         <v>9</v>
@@ -1149,7 +1655,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5">
         <v>11</v>
@@ -1184,7 +1690,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5">
         <v>6</v>
@@ -1210,7 +1716,7 @@
       </c>
       <c r="J13" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2" t="b">
         <f t="shared" si="2"/>
@@ -1219,7 +1725,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5">
         <v>12</v>
@@ -1254,7 +1760,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
@@ -1289,7 +1795,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5">
         <v>15</v>
@@ -1324,7 +1830,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5">
         <v>2</v>
@@ -1359,7 +1865,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="5">
         <v>10</v>
@@ -1385,16 +1891,16 @@
       </c>
       <c r="J18" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="5">
         <v>14</v>
@@ -1420,16 +1926,16 @@
       </c>
       <c r="J19" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
@@ -1464,7 +1970,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>19</v>
@@ -1499,7 +2005,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
@@ -1534,7 +2040,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="5">
         <v>7</v>
@@ -1569,7 +2075,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="5">
         <v>14</v>
@@ -1595,16 +2101,16 @@
       </c>
       <c r="J24" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>10</v>
@@ -1639,7 +2145,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="5">
         <v>11</v>
@@ -1674,7 +2180,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="5">
         <v>20</v>
@@ -1700,16 +2206,16 @@
       </c>
       <c r="J27" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -1744,7 +2250,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="5">
         <v>3</v>
@@ -1779,7 +2285,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="5">
         <v>8</v>
@@ -1814,7 +2320,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="5">
         <v>2</v>
@@ -1849,7 +2355,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="5">
         <v>14</v>
@@ -1884,7 +2390,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
@@ -1902,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I33" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1919,7 +2425,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="5">
         <v>11</v>
@@ -1937,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1954,7 +2460,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
@@ -1972,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I35" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1989,7 +2495,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
@@ -2007,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I36" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2024,7 +2530,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="5">
         <v>1</v>
@@ -2042,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I37" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2059,7 +2565,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="5">
         <v>5</v>
@@ -2077,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I38" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2094,7 +2600,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="5">
         <v>6</v>
@@ -2112,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I39" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2129,7 +2635,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="5">
         <v>3</v>
@@ -2147,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2164,7 +2670,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="5">
         <v>3</v>
@@ -2182,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I41" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2340,10 +2846,10 @@
     <sortCondition descending="1" ref="G3:G41"/>
   </sortState>
   <conditionalFormatting sqref="I3:K41">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2351,12 +2857,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFD52DC-0396-4E75-A791-A98B41F20F3C}">
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,7 +2888,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K1" s="3"/>
     </row>
@@ -2391,43 +2897,43 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N2" s="7">
         <f>COUNTIF(K:K,TRUE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8">
         <v>25</v>
@@ -2462,7 +2968,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="8">
         <v>5</v>
@@ -2497,7 +3003,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
@@ -2532,7 +3038,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="8">
         <v>7</v>
@@ -2567,7 +3073,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -2602,7 +3108,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -2637,7 +3143,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
@@ -2672,7 +3178,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="8">
         <v>3</v>
@@ -2707,7 +3213,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -2742,7 +3248,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="8">
         <v>19</v>
@@ -2777,7 +3283,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="8">
         <v>3</v>
@@ -2812,7 +3318,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
@@ -2847,7 +3353,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="8">
         <v>14</v>
@@ -2882,7 +3388,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="8">
         <v>14</v>
@@ -2917,7 +3423,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -2952,7 +3458,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="8">
         <v>18</v>
@@ -2987,7 +3493,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="8">
         <v>9</v>
@@ -3022,7 +3528,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="8">
         <v>23</v>
@@ -3057,7 +3563,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="8">
         <v>12</v>
@@ -3083,16 +3589,16 @@
       </c>
       <c r="J21" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="8">
         <v>15</v>
@@ -3127,7 +3633,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="8">
         <v>11</v>
@@ -3162,7 +3668,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="8">
         <v>12</v>
@@ -3197,7 +3703,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="8">
         <v>8</v>
@@ -3223,7 +3729,7 @@
       </c>
       <c r="J25" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2" t="b">
         <f t="shared" si="0"/>
@@ -3232,7 +3738,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="8">
         <v>3</v>
@@ -3267,7 +3773,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="8">
         <v>8</v>
@@ -3293,7 +3799,7 @@
       </c>
       <c r="J27" s="2" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2" t="b">
         <f t="shared" si="0"/>
@@ -3302,7 +3808,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="8">
         <v>13</v>
@@ -3337,7 +3843,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="8">
         <v>5</v>
@@ -3372,7 +3878,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="8">
         <v>6</v>
@@ -3407,7 +3913,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="8">
         <v>19</v>
@@ -3442,7 +3948,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
@@ -3477,7 +3983,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="8">
         <v>6</v>
@@ -3512,7 +4018,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="8">
         <v>1</v>
@@ -3547,7 +4053,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="8">
         <v>10</v>
@@ -3582,7 +4088,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
@@ -3617,7 +4123,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" s="8">
         <v>6</v>
@@ -3652,7 +4158,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="8">
         <v>8</v>
@@ -3687,7 +4193,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="8">
         <v>17</v>
@@ -3722,7 +4228,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="8">
         <v>2</v>
@@ -3757,7 +4263,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="8">
         <v>11</v>
@@ -3792,7 +4298,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="8">
         <v>13</v>
@@ -3827,7 +4333,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="8">
         <v>12</v>
@@ -3862,7 +4368,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="8">
         <v>11</v>
@@ -3897,7 +4403,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="8">
         <v>10</v>
@@ -3932,7 +4438,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="8">
         <v>1</v>
@@ -3967,7 +4473,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="8">
         <v>1</v>
@@ -4002,7 +4508,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="8">
         <v>2</v>
@@ -4037,7 +4543,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="8">
         <v>1</v>
@@ -4072,7 +4578,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="8">
         <v>1</v>
@@ -4107,7 +4613,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="8">
         <v>1</v>
@@ -4142,7 +4648,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="8">
         <v>1</v>
@@ -4177,7 +4683,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" s="8">
         <v>7</v>
@@ -4212,7 +4718,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="8">
         <v>1</v>
@@ -4247,7 +4753,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B55" s="8">
         <v>1</v>
@@ -4282,7 +4788,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="8">
         <v>3</v>
@@ -4317,7 +4823,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" s="8">
         <v>4</v>
@@ -4352,7 +4858,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" s="8">
         <v>3</v>
@@ -4387,7 +4893,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59" s="8">
         <v>1</v>
@@ -4422,7 +4928,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" s="8">
         <v>1</v>
@@ -4457,7 +4963,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" s="8">
         <v>16</v>
@@ -4492,7 +4998,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B62" s="8">
         <v>2</v>
@@ -4527,7 +5033,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" s="8">
         <v>1</v>
@@ -4562,7 +5068,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B64" s="8">
         <v>1</v>
@@ -4597,7 +5103,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B65" s="8">
         <v>1</v>
@@ -4632,7 +5138,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B66" s="8">
         <v>1</v>
@@ -4667,7 +5173,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="8">
         <v>4</v>
@@ -4702,7 +5208,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" s="8">
         <v>1</v>
@@ -4737,7 +5243,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B69" s="8">
         <v>1</v>
@@ -4772,7 +5278,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B70" s="8">
         <v>16</v>
@@ -4807,7 +5313,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B71" s="8">
         <v>2</v>
@@ -4842,7 +5348,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B72" s="8">
         <v>2</v>
@@ -4877,7 +5383,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73" s="8">
         <v>1</v>
@@ -4913,10 +5419,10 @@
   </sheetData>
   <autoFilter ref="A2:K41" xr:uid="{0A5D25F9-973B-4AC6-99C9-22E0CA1F5037}"/>
   <conditionalFormatting sqref="I3:K73">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4924,12 +5430,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1B39AA-5350-4CB6-BFDC-CFD6172B17B0}">
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4955,7 +5461,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K1" s="3"/>
     </row>
@@ -4964,793 +5470,1276 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N2" s="7">
         <f>COUNTIF(K:K,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>7.5</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4.25</v>
+      </c>
       <c r="I3" s="2" t="b">
         <f>B3&gt;=$I$1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="b">
         <f>F3&gt;=$J$1</f>
         <v>0</v>
       </c>
       <c r="K3" s="2" t="b">
-        <f t="shared" ref="K3:K66" si="0">AND(I3,J3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+        <f>AND(I3,J3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
       <c r="I4" s="2" t="b">
-        <f t="shared" ref="I4:I67" si="1">B4&gt;=$I$1</f>
-        <v>0</v>
+        <f t="shared" ref="I4:I38" si="0">B4&gt;=$I$1</f>
+        <v>1</v>
       </c>
       <c r="J4" s="2" t="b">
-        <f t="shared" ref="J4:J67" si="2">F4&gt;=$J$1</f>
+        <f t="shared" ref="J4:J38" si="1">F4&gt;=$J$1</f>
         <v>0</v>
       </c>
       <c r="K4" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+        <f t="shared" ref="K4:K38" si="2">AND(I4,J4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>71</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>7.1</v>
+      </c>
       <c r="I5" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K5" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
       <c r="I6" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>118</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>367</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>10.49</v>
+      </c>
       <c r="I7" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K7" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>6.1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>10.5</v>
+      </c>
       <c r="I8" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>10.83</v>
+      </c>
       <c r="I9" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>145</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>14.5</v>
+      </c>
       <c r="I10" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>174</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>14.5</v>
+      </c>
       <c r="I11" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>97.4</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>462</v>
+      </c>
+      <c r="F12">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>15.93</v>
+      </c>
       <c r="I12" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K12" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>46.1</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>179</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>17.899999999999999</v>
+      </c>
       <c r="I13" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J13" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K13" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>64.3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>347</v>
+      </c>
+      <c r="F14">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>19.28</v>
+      </c>
       <c r="I14" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K14" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>320</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
       <c r="I15" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J15" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K15" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>225</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>20.45</v>
+      </c>
       <c r="I16" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K16" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>93.3</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>425</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>21.25</v>
+      </c>
       <c r="I17" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J17" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K17" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>28.4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>150</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>21.43</v>
+      </c>
       <c r="I18" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J18" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>285</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>21.92</v>
+      </c>
       <c r="I19" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J19" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K19" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>95</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>23.75</v>
+      </c>
       <c r="I20" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J20" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>71.2</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>277</v>
+      </c>
+      <c r="F21">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>25.18</v>
+      </c>
       <c r="I21" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J21" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K21" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>178</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>29.67</v>
+      </c>
       <c r="I22" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J22" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>20.2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>97</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>32.33</v>
+      </c>
       <c r="I23" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J23" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>67</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>308</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>38.5</v>
+      </c>
       <c r="I24" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J24" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>23.2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>148</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>74</v>
+      </c>
       <c r="I25" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J25" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>75</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>75</v>
+      </c>
       <c r="I26" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J26" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
       <c r="I27" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J27" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
       <c r="I28" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J28" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
       <c r="I29" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J29" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
       <c r="I30" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J30" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
       <c r="I31" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J31" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
       <c r="I32" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J32" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
       <c r="I33" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J33" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
       <c r="I34" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J34" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3</v>
+      </c>
       <c r="I35" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J35" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
       <c r="I36" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J36" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K36" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>3</v>
+      </c>
       <c r="I37" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J37" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K37" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
       <c r="I38" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J38" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K38" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5762,18 +6751,6 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="I39" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
@@ -5783,18 +6760,6 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="I40" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -5804,18 +6769,6 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="I41" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -5825,18 +6778,6 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="I42" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -5846,18 +6787,6 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="I43" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
@@ -5867,18 +6796,6 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="I44" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -5888,18 +6805,6 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="I45" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -5909,18 +6814,6 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="I46" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -5930,18 +6823,6 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="I47" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -5951,20 +6832,8 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="I48" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -5972,20 +6841,8 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="I49" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -5993,20 +6850,8 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="I50" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -6014,20 +6859,8 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="I51" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -6035,20 +6868,8 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="I52" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -6056,20 +6877,8 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="I53" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -6077,20 +6886,8 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="I54" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -6098,20 +6895,8 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="I55" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -6119,20 +6904,8 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="I56" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -6140,20 +6913,8 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="I57" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -6161,20 +6922,8 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="I58" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -6182,20 +6931,8 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="I59" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -6203,20 +6940,8 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="I60" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -6224,16 +6949,2265 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:K41" xr:uid="{0A5D25F9-973B-4AC6-99C9-22E0CA1F5037}"/>
+  <conditionalFormatting sqref="I3:K38">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50BFA24-DF59-4A31-AF32-BF42B54005CA}">
+  <dimension ref="A1:N73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11" style="2"/>
+    <col min="13" max="13" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I1" s="3">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="55.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="7">
+        <f>COUNTIF(K:K,TRUE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <f>B3&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <f>F3&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="b">
+        <f>AND(I3,J3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <f t="shared" ref="I4:I38" si="0">B4&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <f t="shared" ref="J4:J38" si="1">F4&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="b">
+        <f t="shared" ref="K4:K38" si="2">AND(I4,J4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>14.25</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="2">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>112</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>459</v>
+      </c>
+      <c r="F7" s="2">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2">
+        <v>14.34375</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="2">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="2">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>110</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>540</v>
+      </c>
+      <c r="F10" s="2">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="2">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>90</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>345</v>
+      </c>
+      <c r="F13" s="2">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2">
+        <v>19.166666666666668</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="2">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2">
+        <v>306</v>
+      </c>
+      <c r="F14" s="2">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I14" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="2">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2">
+        <v>71</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>347</v>
+      </c>
+      <c r="F15" s="2">
+        <v>17</v>
+      </c>
+      <c r="G15" s="2">
+        <v>20.411764705882351</v>
+      </c>
+      <c r="I15" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>134</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2">
+        <v>22.333333333333332</v>
+      </c>
+      <c r="I16" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2">
+        <v>320</v>
+      </c>
+      <c r="F17" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2">
+        <v>22.857142857142858</v>
+      </c>
+      <c r="I17" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>116</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>23.2</v>
+      </c>
+      <c r="I18" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>47</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="I19" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="2">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2">
+        <v>288</v>
+      </c>
+      <c r="F20" s="2">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2">
+        <v>24</v>
+      </c>
+      <c r="I20" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>128</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="I21" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>26</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>26</v>
+      </c>
+      <c r="I22" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="2">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2">
+        <v>320</v>
+      </c>
+      <c r="F23" s="2">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="I23" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>215</v>
+      </c>
+      <c r="F24" s="2">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2">
+        <v>26.875</v>
+      </c>
+      <c r="I24" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="2">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>432</v>
+      </c>
+      <c r="F25" s="2">
+        <v>16</v>
+      </c>
+      <c r="G25" s="2">
+        <v>27</v>
+      </c>
+      <c r="I25" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="2">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>236</v>
+      </c>
+      <c r="F26" s="2">
+        <v>8</v>
+      </c>
+      <c r="G26" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="I26" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>186</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I28" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="2">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>155</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2">
+        <v>38.75</v>
+      </c>
+      <c r="I29" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="2">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>122</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2">
+        <v>40.666666666666664</v>
+      </c>
+      <c r="I30" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>42</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>42</v>
+      </c>
+      <c r="I31" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="2">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>43</v>
+      </c>
+      <c r="I32" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="2">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2">
+        <v>90</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>539</v>
+      </c>
+      <c r="F33" s="2">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2">
+        <v>53.9</v>
+      </c>
+      <c r="I33" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="2">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>216</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4</v>
+      </c>
+      <c r="G34" s="2">
+        <v>54</v>
+      </c>
+      <c r="I34" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="2">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>131</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>65.5</v>
+      </c>
+      <c r="I35" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J35" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="2">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>18</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="2">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="2">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="2">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>14</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="2" t="b">
+        <f t="shared" ref="I39:I61" si="3">B39&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="2" t="b">
+        <f t="shared" ref="J39:J61" si="4">F39&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="b">
+        <f t="shared" ref="K39:K61" si="5">AND(I39,J39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="2">
+        <v>13</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>49</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="2">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2">
+        <v>16</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>79</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J41" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="2">
+        <v>8</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="2">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="2">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="2">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>90</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="2">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>50</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>10</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>35</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="2" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I61" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J61" s="2" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K61" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6245,18 +9219,6 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="I62" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -6266,18 +9228,6 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="I63" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -6287,20 +9237,8 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="I64" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -6308,20 +9246,8 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="I65" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -6329,20 +9255,8 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="I66" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -6350,20 +9264,8 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="I67" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="2" t="b">
-        <f t="shared" ref="K67:K73" si="3">AND(I67,J67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -6371,20 +9273,8 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="I68" s="2" t="b">
-        <f t="shared" ref="I68:I73" si="4">B68&gt;=$I$1</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="b">
-        <f t="shared" ref="J68:J73" si="5">F68&gt;=$J$1</f>
-        <v>0</v>
-      </c>
-      <c r="K68" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -6392,20 +9282,8 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="I69" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -6413,20 +9291,8 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="I70" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -6434,20 +9300,8 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="I71" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="2" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -6455,20 +9309,8 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="I72" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="2" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -6476,22 +9318,2145 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="I73" s="2" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="2" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="2" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:K41" xr:uid="{0A5D25F9-973B-4AC6-99C9-22E0CA1F5037}"/>
-  <conditionalFormatting sqref="I3:K73">
+  <conditionalFormatting sqref="I3:K61">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBDD0EF-34B8-40C7-A7C0-3517383F25F9}">
+  <dimension ref="A1:N73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11" style="2"/>
+    <col min="13" max="13" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I1" s="3">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="55.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="7">
+        <f>COUNTIF(K:K,TRUE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <f>B3&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <f>F3&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="b">
+        <f>AND(I3,J3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11">
+        <v>4</v>
+      </c>
+      <c r="G4" s="10">
+        <v>3.25</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <f>B4&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <f>F4&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="b">
+        <f t="shared" ref="K4:K61" si="0">AND(I4,J4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="11">
+        <v>20</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <f>B5&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <f>F5&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <f>B6&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <f>F6&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="11">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12">
+        <v>68</v>
+      </c>
+      <c r="D7" s="11">
+        <v>11</v>
+      </c>
+      <c r="E7" s="12">
+        <v>168</v>
+      </c>
+      <c r="F7" s="11">
+        <v>19</v>
+      </c>
+      <c r="G7" s="10">
+        <v>8.8421052631578956</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <f>B7&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <f>F7&gt;=$J$1</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="11">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12">
+        <v>85</v>
+      </c>
+      <c r="D8" s="11">
+        <v>13</v>
+      </c>
+      <c r="E8" s="12">
+        <v>302</v>
+      </c>
+      <c r="F8" s="11">
+        <v>28</v>
+      </c>
+      <c r="G8" s="10">
+        <v>10.785714285714286</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <f>B8&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <f>F8&gt;=$J$1</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="11">
+        <v>14</v>
+      </c>
+      <c r="C9" s="12">
+        <v>23</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3</v>
+      </c>
+      <c r="E9" s="12">
+        <v>87</v>
+      </c>
+      <c r="F9" s="11">
+        <v>8</v>
+      </c>
+      <c r="G9" s="10">
+        <v>10.875</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <f>B9&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="b">
+        <f>F9&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="11">
+        <v>17</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>12</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <f>B10&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="b">
+        <f>F10&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="11">
+        <v>19</v>
+      </c>
+      <c r="C11" s="12">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>54</v>
+      </c>
+      <c r="F11" s="11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="10">
+        <v>13.5</v>
+      </c>
+      <c r="I11" s="2" t="b">
+        <f>B11&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="b">
+        <f>F11&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="11">
+        <v>7</v>
+      </c>
+      <c r="C12" s="12">
+        <v>43</v>
+      </c>
+      <c r="D12" s="11">
+        <v>7</v>
+      </c>
+      <c r="E12" s="12">
+        <v>109</v>
+      </c>
+      <c r="F12" s="11">
+        <v>8</v>
+      </c>
+      <c r="G12" s="10">
+        <v>13.625</v>
+      </c>
+      <c r="I12" s="2" t="b">
+        <f>B12&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="b">
+        <f>F12&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="11">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12">
+        <v>31</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>106</v>
+      </c>
+      <c r="F13" s="11">
+        <v>7</v>
+      </c>
+      <c r="G13" s="10">
+        <v>15.142857142857142</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <f>B13&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="b">
+        <f>F13&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="11">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12">
+        <v>42</v>
+      </c>
+      <c r="D14" s="11">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12">
+        <v>272</v>
+      </c>
+      <c r="F14" s="11">
+        <v>17</v>
+      </c>
+      <c r="G14" s="10">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2" t="b">
+        <f>B14&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="b">
+        <f>F14&gt;=$J$1</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>16</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2" t="b">
+        <f>B15&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="b">
+        <f>F15&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="11">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12">
+        <v>103</v>
+      </c>
+      <c r="D16" s="11">
+        <v>13</v>
+      </c>
+      <c r="E16" s="12">
+        <v>356</v>
+      </c>
+      <c r="F16" s="11">
+        <v>22</v>
+      </c>
+      <c r="G16" s="10">
+        <v>16.181818181818183</v>
+      </c>
+      <c r="I16" s="2" t="b">
+        <f>B16&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="b">
+        <f>F16&gt;=$J$1</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="11">
+        <v>19</v>
+      </c>
+      <c r="C17" s="12">
+        <v>145</v>
+      </c>
+      <c r="D17" s="11">
+        <v>20</v>
+      </c>
+      <c r="E17" s="12">
+        <v>592</v>
+      </c>
+      <c r="F17" s="11">
+        <v>32</v>
+      </c>
+      <c r="G17" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="I17" s="2" t="b">
+        <f>B17&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="b">
+        <f>F17&gt;=$J$1</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12">
+        <v>5</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>19</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2" t="b">
+        <f>B18&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="b">
+        <f>F18&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="11">
+        <v>15</v>
+      </c>
+      <c r="C19" s="12">
+        <v>37</v>
+      </c>
+      <c r="D19" s="11">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12">
+        <v>172</v>
+      </c>
+      <c r="F19" s="11">
+        <v>9</v>
+      </c>
+      <c r="G19" s="10">
+        <v>19.111111111111111</v>
+      </c>
+      <c r="I19" s="2" t="b">
+        <f>B19&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="b">
+        <f>F19&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="11">
+        <v>16</v>
+      </c>
+      <c r="C20" s="12">
+        <v>54</v>
+      </c>
+      <c r="D20" s="11">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>307</v>
+      </c>
+      <c r="F20" s="11">
+        <v>15</v>
+      </c>
+      <c r="G20" s="10">
+        <v>20.466666666666665</v>
+      </c>
+      <c r="I20" s="2" t="b">
+        <f>B20&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="b">
+        <f>F20&gt;=$J$1</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12">
+        <v>65</v>
+      </c>
+      <c r="D21" s="11">
+        <v>4</v>
+      </c>
+      <c r="E21" s="12">
+        <v>328</v>
+      </c>
+      <c r="F21" s="11">
+        <v>16</v>
+      </c>
+      <c r="G21" s="10">
+        <v>20.5</v>
+      </c>
+      <c r="I21" s="2" t="b">
+        <f>B21&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="b">
+        <f>F21&gt;=$J$1</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="11">
+        <v>15</v>
+      </c>
+      <c r="C22" s="12">
+        <v>62</v>
+      </c>
+      <c r="D22" s="11">
+        <v>14</v>
+      </c>
+      <c r="E22" s="12">
+        <v>253</v>
+      </c>
+      <c r="F22" s="11">
+        <v>12</v>
+      </c>
+      <c r="G22" s="10">
+        <v>21.083333333333332</v>
+      </c>
+      <c r="I22" s="2" t="b">
+        <f>B22&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="b">
+        <f>F22&gt;=$J$1</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="11">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12">
+        <v>45</v>
+      </c>
+      <c r="D23" s="11">
+        <v>6</v>
+      </c>
+      <c r="E23" s="12">
+        <v>212</v>
+      </c>
+      <c r="F23" s="11">
+        <v>10</v>
+      </c>
+      <c r="G23" s="10">
+        <v>21.2</v>
+      </c>
+      <c r="I23" s="2" t="b">
+        <f>B23&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="b">
+        <f>F23&gt;=$J$1</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="11">
+        <v>6</v>
+      </c>
+      <c r="C24" s="12">
+        <v>24</v>
+      </c>
+      <c r="D24" s="11">
+        <v>2</v>
+      </c>
+      <c r="E24" s="12">
+        <v>87</v>
+      </c>
+      <c r="F24" s="11">
+        <v>4</v>
+      </c>
+      <c r="G24" s="10">
+        <v>21.75</v>
+      </c>
+      <c r="I24" s="2" t="b">
+        <f>B24&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="b">
+        <f>F24&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="11">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12">
+        <v>29</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>209</v>
+      </c>
+      <c r="F25" s="11">
+        <v>9</v>
+      </c>
+      <c r="G25" s="10">
+        <v>23.222222222222221</v>
+      </c>
+      <c r="I25" s="2" t="b">
+        <f>B25&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="b">
+        <f>F25&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="11">
+        <v>7</v>
+      </c>
+      <c r="C26" s="12">
+        <v>93</v>
+      </c>
+      <c r="D26" s="11">
+        <v>5</v>
+      </c>
+      <c r="E26" s="12">
+        <v>188</v>
+      </c>
+      <c r="F26" s="11">
+        <v>8</v>
+      </c>
+      <c r="G26" s="10">
+        <v>23.5</v>
+      </c>
+      <c r="I26" s="2" t="b">
+        <f>B26&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="b">
+        <f>F26&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="11">
+        <v>10</v>
+      </c>
+      <c r="C27" s="12">
+        <v>31</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
+        <v>143</v>
+      </c>
+      <c r="F27" s="11">
+        <v>6</v>
+      </c>
+      <c r="G27" s="10">
+        <v>23.833333333333332</v>
+      </c>
+      <c r="I27" s="2" t="b">
+        <f>B27&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="b">
+        <f>F27&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="11">
+        <v>12</v>
+      </c>
+      <c r="C28" s="12">
+        <v>40</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>217</v>
+      </c>
+      <c r="F28" s="11">
+        <v>8</v>
+      </c>
+      <c r="G28" s="10">
+        <v>27.125</v>
+      </c>
+      <c r="I28" s="2" t="b">
+        <f>B28&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="b">
+        <f>F28&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="11">
+        <v>12</v>
+      </c>
+      <c r="C29" s="12">
+        <v>15</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>117</v>
+      </c>
+      <c r="F29" s="11">
+        <v>4</v>
+      </c>
+      <c r="G29" s="10">
+        <v>29.25</v>
+      </c>
+      <c r="I29" s="2" t="b">
+        <f>B29&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="b">
+        <f>F29&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="11">
+        <v>16</v>
+      </c>
+      <c r="C30" s="12">
+        <v>30</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>208</v>
+      </c>
+      <c r="F30" s="11">
+        <v>7</v>
+      </c>
+      <c r="G30" s="10">
+        <v>29.714285714285715</v>
+      </c>
+      <c r="I30" s="2" t="b">
+        <f>B30&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="b">
+        <f>F30&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="11">
+        <v>13</v>
+      </c>
+      <c r="C31" s="12">
+        <v>52</v>
+      </c>
+      <c r="D31" s="11">
+        <v>7</v>
+      </c>
+      <c r="E31" s="12">
+        <v>242</v>
+      </c>
+      <c r="F31" s="11">
+        <v>7</v>
+      </c>
+      <c r="G31" s="10">
+        <v>34.571428571428569</v>
+      </c>
+      <c r="I31" s="2" t="b">
+        <f>B31&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="b">
+        <f>F31&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2</v>
+      </c>
+      <c r="C32" s="12">
+        <v>7</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <v>35</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
+        <v>35</v>
+      </c>
+      <c r="I32" s="2" t="b">
+        <f>B32&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="b">
+        <f>F32&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="11">
+        <v>10</v>
+      </c>
+      <c r="C33" s="12">
+        <v>18</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
+        <v>111</v>
+      </c>
+      <c r="F33" s="11">
+        <v>3</v>
+      </c>
+      <c r="G33" s="10">
+        <v>37</v>
+      </c>
+      <c r="I33" s="2" t="b">
+        <f>B33&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="b">
+        <f>F33&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="11">
+        <v>7</v>
+      </c>
+      <c r="C34" s="12">
+        <v>30</v>
+      </c>
+      <c r="D34" s="11">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12">
+        <v>200</v>
+      </c>
+      <c r="F34" s="11">
+        <v>5</v>
+      </c>
+      <c r="G34" s="10">
+        <v>40</v>
+      </c>
+      <c r="I34" s="2" t="b">
+        <f>B34&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="b">
+        <f>F34&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="11">
+        <v>4</v>
+      </c>
+      <c r="C35" s="12">
+        <v>15</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12">
+        <v>105</v>
+      </c>
+      <c r="F35" s="11">
+        <v>2</v>
+      </c>
+      <c r="G35" s="10">
+        <v>52.5</v>
+      </c>
+      <c r="I35" s="2" t="b">
+        <f>B35&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="b">
+        <f>F35&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="11">
+        <v>4</v>
+      </c>
+      <c r="C36" s="12">
+        <v>23</v>
+      </c>
+      <c r="D36" s="11">
+        <v>2</v>
+      </c>
+      <c r="E36" s="12">
+        <v>117</v>
+      </c>
+      <c r="F36" s="11">
+        <v>2</v>
+      </c>
+      <c r="G36" s="10">
+        <v>58.5</v>
+      </c>
+      <c r="I36" s="2" t="b">
+        <f>B36&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="b">
+        <f>F36&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="11">
+        <v>23</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
+        <v>9</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2" t="b">
+        <f>B37&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J37" s="2" t="b">
+        <f>F37&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="11">
+        <v>13</v>
+      </c>
+      <c r="C38" s="12">
+        <v>2</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12">
+        <v>13</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="2" t="b">
+        <f>B38&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="b">
+        <f>F38&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="11">
+        <v>12</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="2" t="b">
+        <f>B39&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="2" t="b">
+        <f>F39&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="11">
+        <v>10</v>
+      </c>
+      <c r="C40" s="12">
+        <v>2</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="12">
+        <v>23</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" s="2" t="b">
+        <f>B40&gt;=$I$1</f>
+        <v>1</v>
+      </c>
+      <c r="J40" s="2" t="b">
+        <f>F40&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="11">
+        <v>7</v>
+      </c>
+      <c r="C41" s="12">
+        <v>18</v>
+      </c>
+      <c r="D41" s="11">
+        <v>1</v>
+      </c>
+      <c r="E41" s="12">
+        <v>70</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="2" t="b">
+        <f>B41&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="b">
+        <f>F41&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" s="11">
+        <v>5</v>
+      </c>
+      <c r="C42" s="12">
+        <v>3</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12">
+        <v>33</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="2" t="b">
+        <f>B42&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="b">
+        <f>F42&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="11">
+        <v>4</v>
+      </c>
+      <c r="C43" s="12">
+        <v>0</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="2" t="b">
+        <f>B43&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="b">
+        <f>F43&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="11">
+        <v>4</v>
+      </c>
+      <c r="C44" s="12">
+        <v>4</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
+      <c r="E44" s="12">
+        <v>23</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="2" t="b">
+        <f>B44&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="b">
+        <f>F44&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="11">
+        <v>3</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="2" t="b">
+        <f>B45&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="b">
+        <f>F45&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="11">
+        <v>2</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0</v>
+      </c>
+      <c r="D46" s="11">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="2" t="b">
+        <f>B46&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="b">
+        <f>F46&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="11">
+        <v>2</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="2" t="b">
+        <f>B47&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="b">
+        <f>F47&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="11">
+        <v>1</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="2" t="b">
+        <f>B48&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="b">
+        <f>F48&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="11">
+        <v>1</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="2" t="b">
+        <f>B49&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="b">
+        <f>F49&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="11">
+        <v>1</v>
+      </c>
+      <c r="C50" s="12">
+        <v>0</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" s="2" t="b">
+        <f>B50&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="b">
+        <f>F50&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="11">
+        <v>1</v>
+      </c>
+      <c r="C51" s="12">
+        <v>0</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" s="2" t="b">
+        <f>B51&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="b">
+        <f>F51&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="11">
+        <v>1</v>
+      </c>
+      <c r="C52" s="12">
+        <v>8</v>
+      </c>
+      <c r="D52" s="11">
+        <v>1</v>
+      </c>
+      <c r="E52" s="12">
+        <v>33</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="2" t="b">
+        <f>B52&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="b">
+        <f>F52&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="11">
+        <v>1</v>
+      </c>
+      <c r="C53" s="12">
+        <v>7</v>
+      </c>
+      <c r="D53" s="11">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <v>34</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53" s="2" t="b">
+        <f>B53&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="b">
+        <f>F53&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="11">
+        <v>1</v>
+      </c>
+      <c r="C54" s="12">
+        <v>0</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="2" t="b">
+        <f>B54&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="b">
+        <f>F54&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" s="11">
+        <v>1</v>
+      </c>
+      <c r="C55" s="12">
+        <v>0</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" s="2" t="b">
+        <f>B55&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="b">
+        <f>F55&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I56" s="2" t="b">
+        <f t="shared" ref="I56:I61" si="1">B56&gt;=$I$1</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="b">
+        <f t="shared" ref="J56:J61" si="2">F56&gt;=$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I57" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I58" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I59" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I60" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I61" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:K41" xr:uid="{0A5D25F9-973B-4AC6-99C9-22E0CA1F5037}"/>
+  <conditionalFormatting sqref="I3:K61">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
